--- a/output/fit_clients/fit_round_217.xlsx
+++ b/output/fit_clients/fit_round_217.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2352014157.173363</v>
+        <v>2297217390.875348</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09655143590040315</v>
+        <v>0.1135811572291579</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04046819157024872</v>
+        <v>0.03805753572368538</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1176007121.515389</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2481818481.943314</v>
+        <v>2281569759.746201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1146147589849705</v>
+        <v>0.1619379300634757</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04323322805288279</v>
+        <v>0.04842081471828052</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1240909355.634844</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3167705034.252358</v>
+        <v>4694682352.197079</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1591599454688044</v>
+        <v>0.1304229641966208</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03592742489530761</v>
+        <v>0.03596341472563448</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>78</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1583852472.332845</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2677767448.083417</v>
+        <v>2599588850.05456</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07508760178712891</v>
+        <v>0.0895969571580192</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04520807566556528</v>
+        <v>0.0389332894332941</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>81</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1338883815.169617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1872771937.921721</v>
+        <v>2825839846.732388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1408402715649625</v>
+        <v>0.1134325057894719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05457879324672192</v>
+        <v>0.03686478358649137</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>936386012.3094983</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2911837279.907312</v>
+        <v>2635607509.51732</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08168418477159142</v>
+        <v>0.07858322173022043</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04400252034855008</v>
+        <v>0.04097787590373062</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>66</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1455918613.324875</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2440776825.176858</v>
+        <v>2604093618.196068</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1740123617433194</v>
+        <v>0.1822451647591033</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03143551074100462</v>
+        <v>0.0225794748377466</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>69</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1220388412.920677</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2159516260.503794</v>
+        <v>1901938001.270051</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1203192635132067</v>
+        <v>0.1878206302968553</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0275401583219638</v>
+        <v>0.03644385229486629</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1079758134.698285</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4859359515.834523</v>
+        <v>3740659091.469654</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1542435737237141</v>
+        <v>0.1741825926084092</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03597560138235913</v>
+        <v>0.03797216304638568</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>91</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2429679846.314283</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3170739593.968058</v>
+        <v>3791644727.041121</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1630654517709371</v>
+        <v>0.1229072943482309</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04587220395100339</v>
+        <v>0.03899238330975401</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>90</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1585369751.789241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2794611462.516555</v>
+        <v>3014171158.385667</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15830049124915</v>
+        <v>0.1919196945233792</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03776632588934312</v>
+        <v>0.04463085813436769</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1397305730.457703</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4923260273.346825</v>
+        <v>3861724439.183088</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1012153616898888</v>
+        <v>0.1013245211255993</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02935993156259113</v>
+        <v>0.02454343196249383</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>73</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2461630144.692041</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2915427937.791938</v>
+        <v>3791833818.921521</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1770453884624835</v>
+        <v>0.1615473138916003</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03235336383931512</v>
+        <v>0.04384691650647107</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1457714009.447609</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1771659511.432981</v>
+        <v>1378460334.3261</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07341419812100332</v>
+        <v>0.08140133625580122</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03639400635896252</v>
+        <v>0.03512388280672581</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>885829902.7946714</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1972300958.918605</v>
+        <v>2878188302.262234</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09730114160417475</v>
+        <v>0.07824412549047673</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03761781824578753</v>
+        <v>0.04678819001093347</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>36</v>
-      </c>
-      <c r="J16" t="n">
-        <v>986150557.4026145</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3324802391.587756</v>
+        <v>4499472752.2768</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1565719576565381</v>
+        <v>0.1408670167930312</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04597677972503843</v>
+        <v>0.04499177403989463</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>63</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1662401263.744954</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3822545242.485995</v>
+        <v>3869482553.163599</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1522188526239185</v>
+        <v>0.126543362843132</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02267690936652418</v>
+        <v>0.03070277192786025</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>71</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1911272591.894983</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1101496007.691417</v>
+        <v>1297207471.946176</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1810078631524084</v>
+        <v>0.1348789841367721</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02585782714171805</v>
+        <v>0.02053227878649428</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>550748057.7662556</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2245139291.477766</v>
+        <v>2630802244.17135</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1173583135293826</v>
+        <v>0.1085167179431933</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03052372933025123</v>
+        <v>0.03046545525354248</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1122569645.969782</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2735242518.508461</v>
+        <v>1946951025.744915</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08399440264533677</v>
+        <v>0.06722997255113454</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04298781858873213</v>
+        <v>0.04517649799850462</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1367621224.838071</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2701871935.811936</v>
+        <v>3845211063.59141</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1125633539112955</v>
+        <v>0.1151104184109881</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04344989570865491</v>
+        <v>0.04240479200147866</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>60</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1350936047.277385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1463565620.527385</v>
+        <v>1146860036.342971</v>
       </c>
       <c r="F23" t="n">
-        <v>0.150847803458615</v>
+        <v>0.1771793163982988</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04144333618791052</v>
+        <v>0.03846144867236376</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>731782802.3293718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2529408596.091723</v>
+        <v>2838807230.552993</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1109179445712544</v>
+        <v>0.1335593041219045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0321916960538469</v>
+        <v>0.03155927415430897</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>64</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1264704364.928545</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1156192451.465613</v>
+        <v>1073647830.501459</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09290371175968588</v>
+        <v>0.1213204574110292</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0190127061736977</v>
+        <v>0.01995012122861672</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>578096253.7833878</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1007068133.358015</v>
+        <v>1323536230.847777</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1142806810733917</v>
+        <v>0.08814143478684208</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03298535577741898</v>
+        <v>0.03452208908831737</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>503534040.5277725</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4415791217.771329</v>
+        <v>3693424780.847345</v>
       </c>
       <c r="F27" t="n">
-        <v>0.13262832951498</v>
+        <v>0.156972835410271</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01779890745472449</v>
+        <v>0.02471841927469253</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2207895598.368006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2832226666.285626</v>
+        <v>3345589336.21905</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1507840139436657</v>
+        <v>0.1442436074818006</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04099274255583451</v>
+        <v>0.03345036287790639</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1416113329.773969</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5079259126.399094</v>
+        <v>4104600131.733144</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1372256986456938</v>
+        <v>0.14616158779623</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03104021431700583</v>
+        <v>0.03469722236788536</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>96</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2539629505.233992</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2104264875.477992</v>
+        <v>2402777897.442403</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1315947226417745</v>
+        <v>0.1325626500871445</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02489833581542283</v>
+        <v>0.03908218943356321</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1052132487.087702</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>952482705.6314069</v>
+        <v>1489719259.999514</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09321051606722401</v>
+        <v>0.08132289896875677</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0324837008536844</v>
+        <v>0.04251312955147636</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>476241362.5316794</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1553310047.064586</v>
+        <v>1462213137.296715</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07407045958613458</v>
+        <v>0.1056121779940882</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02548546155911467</v>
+        <v>0.02868119782734316</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>776655102.9185958</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2111895870.426964</v>
+        <v>2592799471.737459</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1541471382418689</v>
+        <v>0.139832036481075</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0420762162272013</v>
+        <v>0.05693385568066581</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1055948006.461282</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1532427339.644967</v>
+        <v>976285416.3481487</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07399787628155237</v>
+        <v>0.09786735206046582</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02170712591660768</v>
+        <v>0.0278651424358868</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>766213620.3138754</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1058797794.513127</v>
+        <v>1224746515.635078</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07553944015305759</v>
+        <v>0.07531914331919758</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03084175782982507</v>
+        <v>0.03564663681245767</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>529398902.9241961</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2237833945.156288</v>
+        <v>2488685382.8957</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1609625558277053</v>
+        <v>0.1614592123038008</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02774603169407246</v>
+        <v>0.02074818837399503</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1118917015.519377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2628301820.108149</v>
+        <v>2756291305.450852</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08681664836610496</v>
+        <v>0.1095835479993481</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03833942065425085</v>
+        <v>0.03995884109819913</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>56</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1314151023.740541</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2159278505.438593</v>
+        <v>1381139019.309756</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0877123563558187</v>
+        <v>0.1076825279652356</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02528560253588247</v>
+        <v>0.03009601237852301</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1079639208.83154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1886669978.529032</v>
+        <v>1430560642.585604</v>
       </c>
       <c r="F39" t="n">
-        <v>0.133630672681563</v>
+        <v>0.1661628328126047</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03194164890747652</v>
+        <v>0.02460424163942421</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>943335000.9770404</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1793272212.771675</v>
+        <v>1187765941.771191</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1513635481252199</v>
+        <v>0.1624667621193156</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04127104407751432</v>
+        <v>0.05724147455353561</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>896635999.1347871</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2349388654.616226</v>
+        <v>2328347952.93049</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1551452473449181</v>
+        <v>0.1305589541013938</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04659604898944711</v>
+        <v>0.04606221158292106</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1174694367.314878</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3232887377.953063</v>
+        <v>3438574692.519326</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1238446101237768</v>
+        <v>0.1019388076626185</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04001424963814348</v>
+        <v>0.0286335837796322</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>78</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1616443665.423012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2575135961.481115</v>
+        <v>2481376469.460108</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1988927526077258</v>
+        <v>0.1423195425849198</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02242880596999066</v>
+        <v>0.02484672285293217</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>75</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1287568021.812728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1866063974.851297</v>
+        <v>2145571964.887012</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06831556618542915</v>
+        <v>0.09893283387757888</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0362356859180595</v>
+        <v>0.02281088885649383</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>933032067.0292815</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2330382488.235009</v>
+        <v>2322775464.805452</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1903499545590038</v>
+        <v>0.1465702017872954</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0516213042306758</v>
+        <v>0.05218781230950781</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1165191268.291879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4427846734.363973</v>
+        <v>4459844741.459641</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1650230270334565</v>
+        <v>0.1198931599191985</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04595291333028407</v>
+        <v>0.04101621743794513</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>77</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2213923361.187062</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3528466148.70226</v>
+        <v>4735110654.117736</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1831458584012506</v>
+        <v>0.1600375339614259</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04806165647297848</v>
+        <v>0.05485088726103154</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>58</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1764233046.738871</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3305016717.426526</v>
+        <v>3479969815.295356</v>
       </c>
       <c r="F48" t="n">
-        <v>0.104825004811498</v>
+        <v>0.1104624134457434</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02498917794388595</v>
+        <v>0.02622152862681697</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1652508433.461277</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1265133470.014816</v>
+        <v>1300869965.488661</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1451340380309256</v>
+        <v>0.1209428238961419</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03048553165136544</v>
+        <v>0.03955335249803697</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>632566803.5410861</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3550242172.46175</v>
+        <v>3413958315.369833</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1747483997440259</v>
+        <v>0.1181749722712075</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05064693415518681</v>
+        <v>0.04396468925077507</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>74</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1775121106.887915</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1392905672.45552</v>
+        <v>1295202901.41532</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1417933978587697</v>
+        <v>0.124456790999305</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04807324313480422</v>
+        <v>0.03537462794581748</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>696452856.4890839</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3292799187.033139</v>
+        <v>3623159865.800312</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1160501922602952</v>
+        <v>0.09129735670441837</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04010921608340031</v>
+        <v>0.06105397913221154</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>89</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1646399691.603857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3386897353.076024</v>
+        <v>2890011361.264497</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1831969005972318</v>
+        <v>0.1718401319153775</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0252785198160063</v>
+        <v>0.02419120819226689</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>62</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1693448682.248063</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3040697831.720258</v>
+        <v>3355735166.401092</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1576762972166038</v>
+        <v>0.1109656600009722</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04370072601699383</v>
+        <v>0.04197084420340083</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>71</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1520348904.564726</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4831011249.904175</v>
+        <v>4507876809.465732</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1733216179690895</v>
+        <v>0.1556876889238527</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01979964754218182</v>
+        <v>0.02450183675751296</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2415505636.521743</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1680161685.416568</v>
+        <v>1216881072.028076</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1570890686901409</v>
+        <v>0.1234286566298011</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03719692560028801</v>
+        <v>0.05326622342879395</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>840080858.2747673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4558188288.575057</v>
+        <v>3591284525.833342</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1123640448039773</v>
+        <v>0.1179128409342389</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01715153855577753</v>
+        <v>0.02430494517855663</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>69</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2279094279.503006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1783958698.105072</v>
+        <v>1766553144.449262</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1348238497460786</v>
+        <v>0.1528330407059705</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02479313638955868</v>
+        <v>0.03722681357812908</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>891979354.2572484</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4278426065.804107</v>
+        <v>4909426658.288227</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1121764371044142</v>
+        <v>0.08505153824381524</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0485699970671274</v>
+        <v>0.03826319265794693</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2139212995.414375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2277106107.198906</v>
+        <v>2849177956.776847</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1469174636068675</v>
+        <v>0.1555955988682778</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03051302643554994</v>
+        <v>0.0228136883511176</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1138553048.105053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3107093506.838039</v>
+        <v>2524465279.277304</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1409458722099818</v>
+        <v>0.1783296467960133</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02837586251974049</v>
+        <v>0.03033146793837306</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>75</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1553546723.777167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1616399138.832785</v>
+        <v>1770576166.457103</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1612092043242596</v>
+        <v>0.1726421594257466</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04933789839153412</v>
+        <v>0.04777377673660858</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>808199569.9423896</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5107352643.378378</v>
+        <v>4052215795.226251</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09594004793137269</v>
+        <v>0.08487842725613562</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02909040879138183</v>
+        <v>0.03722488339744615</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2553676334.645898</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4569551442.025504</v>
+        <v>3429991572.141608</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1801565913999338</v>
+        <v>0.1845170218017179</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02386128472264768</v>
+        <v>0.02454780754070257</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>67</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2284775796.920415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4400409171.124091</v>
+        <v>5630815789.827407</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1118748493219679</v>
+        <v>0.1568614306832685</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02843301108823051</v>
+        <v>0.01963263034527184</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>78</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2200204580.220476</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5644362965.088384</v>
+        <v>3876994912.096608</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0994479126024672</v>
+        <v>0.1464403332701797</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04414723473434552</v>
+        <v>0.05104849966129524</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>63</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2822181544.201252</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3470865702.010067</v>
+        <v>3126275096.515705</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06885517895965494</v>
+        <v>0.09558007718114199</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03723027432184252</v>
+        <v>0.03125570654118443</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>71</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1735432829.39558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4975200424.015022</v>
+        <v>3998828506.513476</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1120921781126945</v>
+        <v>0.1383605118922334</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04579901575310624</v>
+        <v>0.03566464737799247</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2487600266.873983</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2356791231.405063</v>
+        <v>1918910063.592796</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1317366858338319</v>
+        <v>0.1541808798218678</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04570360122220007</v>
+        <v>0.03698296338213995</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1178395666.775483</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3304264657.53827</v>
+        <v>2506815842.941061</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08224278941193046</v>
+        <v>0.09104686858805836</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04482856630921265</v>
+        <v>0.03584702101768896</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>62</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1652132325.52546</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5294197662.106549</v>
+        <v>5480054174.120241</v>
       </c>
       <c r="F71" t="n">
-        <v>0.147326221240558</v>
+        <v>0.172576501089348</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02712784430883173</v>
+        <v>0.02940437413868091</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>79</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2647098958.709428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2166780827.509851</v>
+        <v>2254817948.540493</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0995967713623505</v>
+        <v>0.08757611743014211</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0417304711522336</v>
+        <v>0.05221716963405446</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1083390333.195543</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3263203754.923315</v>
+        <v>3123132397.844409</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07259025607062987</v>
+        <v>0.1016961189514407</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0398618686073105</v>
+        <v>0.0491086547092348</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>83</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1631601849.307647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3447646232.050764</v>
+        <v>3228643139.128463</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1787384199385399</v>
+        <v>0.1791717377009988</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02860829618409425</v>
+        <v>0.02875462229646195</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>73</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1723823142.72147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2209311391.192463</v>
+        <v>2355462493.746889</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1120650727387248</v>
+        <v>0.146303401805692</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0353781584726796</v>
+        <v>0.03046487503839774</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1104655640.201527</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3735918458.022181</v>
+        <v>3409865063.459477</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1035833131803313</v>
+        <v>0.09631506374843636</v>
       </c>
       <c r="G76" t="n">
-        <v>0.032289727538737</v>
+        <v>0.03178167688060395</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1867959202.607309</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2275943369.636772</v>
+        <v>2203713871.811513</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1149485978931486</v>
+        <v>0.1594624891441671</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02897094157443938</v>
+        <v>0.02225715703324257</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1137971787.053002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4600465447.010183</v>
+        <v>4569953038.087545</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1337636510468631</v>
+        <v>0.09200428351455918</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04128842652475621</v>
+        <v>0.05417386894631732</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>75</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2300232646.244598</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1501581130.022306</v>
+        <v>1607523851.183091</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1476799290517808</v>
+        <v>0.1634064118356619</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02711026216481181</v>
+        <v>0.03366394142957764</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>750790599.4778974</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4213050678.414721</v>
+        <v>3756169378.701183</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06812261942657978</v>
+        <v>0.08079372332695921</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02422112095886903</v>
+        <v>0.02534071957513719</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>45</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2106525349.248713</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3592039426.88764</v>
+        <v>4353648343.19644</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1145852075122157</v>
+        <v>0.09084012231622701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02612096651586563</v>
+        <v>0.02219001691917986</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1796019661.507168</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4206968481.293857</v>
+        <v>5528733653.930733</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1443906452340978</v>
+        <v>0.1589994389835893</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02200305808542074</v>
+        <v>0.02886649740217761</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2103484268.853956</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2093180120.306219</v>
+        <v>1523605722.39702</v>
       </c>
       <c r="F83" t="n">
-        <v>0.11268203929471</v>
+        <v>0.1103363820127781</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04393820602249298</v>
+        <v>0.03950741245802775</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1046590057.007254</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1872797217.151236</v>
+        <v>2251020454.165605</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09119666020240638</v>
+        <v>0.07634243401577497</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04116737701688331</v>
+        <v>0.04240319354554689</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>936398632.2032373</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2659268379.186512</v>
+        <v>2349520754.959045</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1491034131487368</v>
+        <v>0.1486985284801706</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04499921785963745</v>
+        <v>0.05422500298362721</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>82</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1329634212.102784</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2053839032.844576</v>
+        <v>2298255193.322723</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1671359476687598</v>
+        <v>0.1550032234174065</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02014596200213465</v>
+        <v>0.02559323663440334</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>28</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1026919551.515736</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1336232754.549034</v>
+        <v>1410449236.576344</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1419078711759046</v>
+        <v>0.1856916189329781</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03079663337745061</v>
+        <v>0.02739319479422727</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>668116467.7626356</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3293654373.444948</v>
+        <v>2347863066.613938</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1387117571150286</v>
+        <v>0.1107837498051734</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0282868536693942</v>
+        <v>0.03667983504191451</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>85</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1646827246.173576</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3183985196.911075</v>
+        <v>2545025997.93526</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1327565973012393</v>
+        <v>0.1401067937656097</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03987237931804213</v>
+        <v>0.03588532022268687</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1591992623.078725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1935458490.592425</v>
+        <v>1880216984.855522</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1231659637400152</v>
+        <v>0.09387034933347904</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05049910185482087</v>
+        <v>0.04324363567572192</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>967729303.6982582</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1383838008.922305</v>
+        <v>1660242451.487147</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1318728347611874</v>
+        <v>0.1758154109920058</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04261600814186773</v>
+        <v>0.04574231967698143</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>691919058.8674175</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2181653044.315045</v>
+        <v>1987424732.467086</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09037225230797159</v>
+        <v>0.1026822176843126</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03996123845737</v>
+        <v>0.04714096659303219</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>55</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1090826482.034658</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3242294325.087952</v>
+        <v>3237744919.418787</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08638907669277948</v>
+        <v>0.126923564805373</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05349715688894009</v>
+        <v>0.05373209003016203</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>67</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1621147212.146683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2400425773.529271</v>
+        <v>1677343228.885586</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1547225681160346</v>
+        <v>0.1431671862283352</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03828512907865281</v>
+        <v>0.03177495689293276</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1200212937.231772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2488669509.372391</v>
+        <v>2367647762.689438</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1232327025034444</v>
+        <v>0.1036011135424645</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04136021958883439</v>
+        <v>0.04567312386711189</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>52</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1244334791.580475</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2259989924.339583</v>
+        <v>2169180491.438517</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1388940472602393</v>
+        <v>0.1179167092892238</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04140947983439944</v>
+        <v>0.035808728670057</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1129994921.369722</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3428195857.714102</v>
+        <v>4759887878.889781</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1673485085937533</v>
+        <v>0.1121800437603233</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02867157554457724</v>
+        <v>0.02088228120562481</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1714097939.243024</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2406562910.876711</v>
+        <v>3471632689.358386</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09900598954044287</v>
+        <v>0.1195998992742411</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02315198848522172</v>
+        <v>0.02062323956057349</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>57</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1203281399.851059</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2155991349.246508</v>
+        <v>2952638376.977267</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09399244301421508</v>
+        <v>0.1083462011492296</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02830867470246151</v>
+        <v>0.03385977559578186</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1077995599.397878</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4403567316.138935</v>
+        <v>3892243476.156115</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1630624717758067</v>
+        <v>0.1321542554203189</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0236518805485676</v>
+        <v>0.02001931579672975</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>67</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2201783760.946558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2389432304.578715</v>
+        <v>3042713530.160594</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2069486464024519</v>
+        <v>0.211951791123791</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03572106274380486</v>
+        <v>0.05200158033363815</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>89</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1194716160.645639</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_217.xlsx
+++ b/output/fit_clients/fit_round_217.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2297217390.875348</v>
+        <v>2293215181.858953</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1135811572291579</v>
+        <v>0.08071425533390869</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03805753572368538</v>
+        <v>0.03956003105923204</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2281569759.746201</v>
+        <v>2521113445.078098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1619379300634757</v>
+        <v>0.15356695525696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04842081471828052</v>
+        <v>0.03504256792994465</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4694682352.197079</v>
+        <v>3626084623.076588</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1304229641966208</v>
+        <v>0.1303844096904659</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03596341472563448</v>
+        <v>0.03248523633700688</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2599588850.05456</v>
+        <v>4246837293.83767</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0895969571580192</v>
+        <v>0.08331646911827346</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0389332894332941</v>
+        <v>0.04755818198193917</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2825839846.732388</v>
+        <v>2719165343.12329</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1134325057894719</v>
+        <v>0.09924345290209448</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03686478358649137</v>
+        <v>0.04139848844580443</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2635607509.51732</v>
+        <v>2813188332.180187</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07858322173022043</v>
+        <v>0.07129587043843563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04097787590373062</v>
+        <v>0.04948175025590448</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2604093618.196068</v>
+        <v>3174661983.619351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1822451647591033</v>
+        <v>0.1675147556277639</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0225794748377466</v>
+        <v>0.02381098517411765</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1901938001.270051</v>
+        <v>1719478635.216284</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1878206302968553</v>
+        <v>0.1402312733375948</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03644385229486629</v>
+        <v>0.02759750554953043</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3740659091.469654</v>
+        <v>4284154354.182793</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1741825926084092</v>
+        <v>0.1528632145572357</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03797216304638568</v>
+        <v>0.03771637112229486</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3791644727.041121</v>
+        <v>2933690374.259028</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1229072943482309</v>
+        <v>0.1803279366885642</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03899238330975401</v>
+        <v>0.03103427824306756</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3014171158.385667</v>
+        <v>2871812691.06704</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1919196945233792</v>
+        <v>0.1662762255962643</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04463085813436769</v>
+        <v>0.05125686765062731</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3861724439.183088</v>
+        <v>3385205528.113801</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1013245211255993</v>
+        <v>0.09417981816813067</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02454343196249383</v>
+        <v>0.0275826125660566</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3791833818.921521</v>
+        <v>3914930969.639852</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1615473138916003</v>
+        <v>0.1750102123854907</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04384691650647107</v>
+        <v>0.03935312600508171</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1378460334.3261</v>
+        <v>1137016359.376465</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08140133625580122</v>
+        <v>0.0839527604043632</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03512388280672581</v>
+        <v>0.03625359558456762</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2878188302.262234</v>
+        <v>2345560168.132722</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07824412549047673</v>
+        <v>0.1091230947272452</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04678819001093347</v>
+        <v>0.03682055655128882</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4499472752.2768</v>
+        <v>4728620094.284687</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1408670167930312</v>
+        <v>0.1343522967577972</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04499177403989463</v>
+        <v>0.04385190938736169</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3869482553.163599</v>
+        <v>3965815783.509634</v>
       </c>
       <c r="F18" t="n">
-        <v>0.126543362843132</v>
+        <v>0.1740425214489299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03070277192786025</v>
+        <v>0.02664530004873389</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1297207471.946176</v>
+        <v>1050218719.327137</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1348789841367721</v>
+        <v>0.1255744422845323</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02053227878649428</v>
+        <v>0.02430560678297301</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2630802244.17135</v>
+        <v>2008732189.562018</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1085167179431933</v>
+        <v>0.1566475296618705</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03046545525354248</v>
+        <v>0.02476211425808208</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1946951025.744915</v>
+        <v>2391616977.889116</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06722997255113454</v>
+        <v>0.07207163807624048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04517649799850462</v>
+        <v>0.04052693249700469</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3845211063.59141</v>
+        <v>4003123092.798826</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1151104184109881</v>
+        <v>0.1197826343616038</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04240479200147866</v>
+        <v>0.05597060692855453</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1146860036.342971</v>
+        <v>1040989280.176421</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1771793163982988</v>
+        <v>0.1322912144373957</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03846144867236376</v>
+        <v>0.05237249391606445</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2838807230.552993</v>
+        <v>3837870469.872958</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1335593041219045</v>
+        <v>0.09418206754381089</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03155927415430897</v>
+        <v>0.03031517734381149</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1073647830.501459</v>
+        <v>1405411888.463861</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1213204574110292</v>
+        <v>0.1093812458918607</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01995012122861672</v>
+        <v>0.02327086849683129</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1323536230.847777</v>
+        <v>921555181.9638962</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08814143478684208</v>
+        <v>0.1166297356489865</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03452208908831737</v>
+        <v>0.0249640090502587</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3693424780.847345</v>
+        <v>3877418586.290895</v>
       </c>
       <c r="F27" t="n">
-        <v>0.156972835410271</v>
+        <v>0.1485324184531729</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02471841927469253</v>
+        <v>0.02244273534742309</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3345589336.21905</v>
+        <v>3229620655.837369</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1442436074818006</v>
+        <v>0.09243115353988492</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03345036287790639</v>
+        <v>0.04875094081466702</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4104600131.733144</v>
+        <v>3868010922.231538</v>
       </c>
       <c r="F29" t="n">
-        <v>0.14616158779623</v>
+        <v>0.1307530588714183</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03469722236788536</v>
+        <v>0.04674665767345369</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2402777897.442403</v>
+        <v>2131892609.587674</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1325626500871445</v>
+        <v>0.1329888965151991</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03908218943356321</v>
+        <v>0.03676733398151273</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1489719259.999514</v>
+        <v>1442761086.192012</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08132289896875677</v>
+        <v>0.09317738912733434</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04251312955147636</v>
+        <v>0.049289887298089</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1462213137.296715</v>
+        <v>1562467224.137806</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1056121779940882</v>
+        <v>0.0841791101938035</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02868119782734316</v>
+        <v>0.03766802121267972</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2592799471.737459</v>
+        <v>2856848182.439871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.139832036481075</v>
+        <v>0.1462157967531663</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05693385568066581</v>
+        <v>0.04196385301781617</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>976285416.3481487</v>
+        <v>1205905658.902781</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09786735206046582</v>
+        <v>0.09229753761562977</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0278651424358868</v>
+        <v>0.02561996656635829</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1224746515.635078</v>
+        <v>969834801.9372797</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07531914331919758</v>
+        <v>0.09203185240784778</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03564663681245767</v>
+        <v>0.04416743930086153</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2488685382.8957</v>
+        <v>3129135105.560049</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1614592123038008</v>
+        <v>0.1281717109551796</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02074818837399503</v>
+        <v>0.02231446023373396</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2756291305.450852</v>
+        <v>2884630713.809684</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1095835479993481</v>
+        <v>0.06912371362481633</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03995884109819913</v>
+        <v>0.04167126916396683</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1381139019.309756</v>
+        <v>1725269636.722414</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1076825279652356</v>
+        <v>0.1053050230252632</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03009601237852301</v>
+        <v>0.02664125787150294</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1430560642.585604</v>
+        <v>1739037519.894743</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1661628328126047</v>
+        <v>0.1278322724112415</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02460424163942421</v>
+        <v>0.03134679986503492</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1187765941.771191</v>
+        <v>1670138886.865379</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1624667621193156</v>
+        <v>0.09793200286983572</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05724147455353561</v>
+        <v>0.04594645322967985</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2328347952.93049</v>
+        <v>2840129330.636111</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1305589541013938</v>
+        <v>0.1082067347906786</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04606221158292106</v>
+        <v>0.04261201752250442</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3438574692.519326</v>
+        <v>2641226136.233107</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1019388076626185</v>
+        <v>0.09412498366252951</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0286335837796322</v>
+        <v>0.02887374330453037</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2481376469.460108</v>
+        <v>2764856704.17662</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1423195425849198</v>
+        <v>0.1359079432085684</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02484672285293217</v>
+        <v>0.02356909220493736</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2145571964.887012</v>
+        <v>1886087857.950617</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09893283387757888</v>
+        <v>0.07595509619487426</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02281088885649383</v>
+        <v>0.02762259980250877</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2322775464.805452</v>
+        <v>2331412687.269424</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1465702017872954</v>
+        <v>0.1173773183038231</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05218781230950781</v>
+        <v>0.04038647372382245</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4459844741.459641</v>
+        <v>3457504787.861959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1198931599191985</v>
+        <v>0.1664583490662274</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04101621743794513</v>
+        <v>0.04502714897751279</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4735110654.117736</v>
+        <v>5058066921.751152</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1600375339614259</v>
+        <v>0.1936210472720004</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05485088726103154</v>
+        <v>0.0515887305450368</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3479969815.295356</v>
+        <v>2984459752.147252</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1104624134457434</v>
+        <v>0.07705514452851378</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02622152862681697</v>
+        <v>0.03526497983789285</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1300869965.488661</v>
+        <v>1766828387.272666</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1209428238961419</v>
+        <v>0.1721719741433997</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03955335249803697</v>
+        <v>0.03026953493462345</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3413958315.369833</v>
+        <v>3091795681.364806</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1181749722712075</v>
+        <v>0.1656611432838271</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04396468925077507</v>
+        <v>0.0402076703231408</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1295202901.41532</v>
+        <v>1528158946.849318</v>
       </c>
       <c r="F51" t="n">
-        <v>0.124456790999305</v>
+        <v>0.1668409576664426</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03537462794581748</v>
+        <v>0.04895632808645894</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3623159865.800312</v>
+        <v>3993280561.397259</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09129735670441837</v>
+        <v>0.1379002142143068</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06105397913221154</v>
+        <v>0.03965429688328825</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2890011361.264497</v>
+        <v>2959311935.82068</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1718401319153775</v>
+        <v>0.1701724040092998</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02419120819226689</v>
+        <v>0.02999384778814652</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3355735166.401092</v>
+        <v>3119674235.236538</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1109656600009722</v>
+        <v>0.1363174714134113</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04197084420340083</v>
+        <v>0.04377015193422169</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4507876809.465732</v>
+        <v>4875796792.917518</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1556876889238527</v>
+        <v>0.2161311553404659</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02450183675751296</v>
+        <v>0.02188630886762619</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1216881072.028076</v>
+        <v>1577755245.487445</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1234286566298011</v>
+        <v>0.1619408312125076</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05326622342879395</v>
+        <v>0.05315615698991708</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3591284525.833342</v>
+        <v>2849944900.303608</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1179128409342389</v>
+        <v>0.1582733077864899</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02430494517855663</v>
+        <v>0.02454535673059594</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1766553144.449262</v>
+        <v>1171826695.569093</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1528330407059705</v>
+        <v>0.1762152586001699</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03722681357812908</v>
+        <v>0.03808234020892189</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4909426658.288227</v>
+        <v>4187868600.557688</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08505153824381524</v>
+        <v>0.1129492868064988</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03826319265794693</v>
+        <v>0.03760102497395183</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2849177956.776847</v>
+        <v>2355702555.177095</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1555955988682778</v>
+        <v>0.1475832931015526</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0228136883511176</v>
+        <v>0.03315456313295902</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2524465279.277304</v>
+        <v>3029327664.217416</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1783296467960133</v>
+        <v>0.1385645402660859</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03033146793837306</v>
+        <v>0.02066273475312067</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1770576166.457103</v>
+        <v>1967665654.929618</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1726421594257466</v>
+        <v>0.1217856755709031</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04777377673660858</v>
+        <v>0.0335557756507261</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4052215795.226251</v>
+        <v>5193402459.715405</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08487842725613562</v>
+        <v>0.07978218045064267</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03722488339744615</v>
+        <v>0.04597006052302664</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3429991572.141608</v>
+        <v>4726976626.927021</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1845170218017179</v>
+        <v>0.1539392282041143</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02454780754070257</v>
+        <v>0.02258008879984651</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5630815789.827407</v>
+        <v>4245195413.804014</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1568614306832685</v>
+        <v>0.1672385778981444</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01963263034527184</v>
+        <v>0.02036755228312245</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3876994912.096608</v>
+        <v>4587906549.636381</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1464403332701797</v>
+        <v>0.1270778967103671</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05104849966129524</v>
+        <v>0.04705405737247733</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3126275096.515705</v>
+        <v>2418381805.521245</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09558007718114199</v>
+        <v>0.07282651283072575</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03125570654118443</v>
+        <v>0.0349420122778248</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3998828506.513476</v>
+        <v>5031965121.451571</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1383605118922334</v>
+        <v>0.1603729954383735</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03566464737799247</v>
+        <v>0.03167427444391292</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1918910063.592796</v>
+        <v>1550753868.677461</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1541808798218678</v>
+        <v>0.1579783004491032</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03698296338213995</v>
+        <v>0.04853094181163321</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2506815842.941061</v>
+        <v>2415903388.332672</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09104686858805836</v>
+        <v>0.06763037889391886</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03584702101768896</v>
+        <v>0.044106812146299</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5480054174.120241</v>
+        <v>4525162187.540401</v>
       </c>
       <c r="F71" t="n">
-        <v>0.172576501089348</v>
+        <v>0.168210751819098</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02940437413868091</v>
+        <v>0.02760932294245762</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2254817948.540493</v>
+        <v>1957972356.129382</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08757611743014211</v>
+        <v>0.1059029859096949</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05221716963405446</v>
+        <v>0.03870761743440927</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3123132397.844409</v>
+        <v>2728201893.140228</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1016961189514407</v>
+        <v>0.08825529922373657</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0491086547092348</v>
+        <v>0.04012210946520529</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3228643139.128463</v>
+        <v>3065617026.679856</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1791717377009988</v>
+        <v>0.1525790226702239</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02875462229646195</v>
+        <v>0.03299015660049171</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2355462493.746889</v>
+        <v>1737481650.307403</v>
       </c>
       <c r="F75" t="n">
-        <v>0.146303401805692</v>
+        <v>0.1613136111590729</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03046487503839774</v>
+        <v>0.02349378859184569</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3409865063.459477</v>
+        <v>4183789888.524688</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09631506374843636</v>
+        <v>0.08007474586800661</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03178167688060395</v>
+        <v>0.02332772269391085</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2203713871.811513</v>
+        <v>1426793154.34506</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1594624891441671</v>
+        <v>0.1608739893521985</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02225715703324257</v>
+        <v>0.02691162875265308</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4569953038.087545</v>
+        <v>3879625002.384274</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09200428351455918</v>
+        <v>0.1216908045299689</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05417386894631732</v>
+        <v>0.03661920647018045</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1607523851.183091</v>
+        <v>1293909343.04132</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1634064118356619</v>
+        <v>0.108052077333571</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03366394142957764</v>
+        <v>0.04066158549759008</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3756169378.701183</v>
+        <v>5120310057.600766</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08079372332695921</v>
+        <v>0.0677946185834998</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02534071957513719</v>
+        <v>0.03199292685320713</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4353648343.19644</v>
+        <v>4825800655.518579</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09084012231622701</v>
+        <v>0.09820488268248245</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02219001691917986</v>
+        <v>0.03188571626417016</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5528733653.930733</v>
+        <v>4790682982.316472</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1589994389835893</v>
+        <v>0.1941568456964839</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02886649740217761</v>
+        <v>0.02431209311515735</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1523605722.39702</v>
+        <v>2471859783.881825</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1103363820127781</v>
+        <v>0.1132321020049075</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03950741245802775</v>
+        <v>0.0340646376519661</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2251020454.165605</v>
+        <v>1988312299.383813</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07634243401577497</v>
+        <v>0.101747182850653</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04240319354554689</v>
+        <v>0.03429934718539703</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2349520754.959045</v>
+        <v>2279462437.157517</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1486985284801706</v>
+        <v>0.1372631826717601</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05422500298362721</v>
+        <v>0.03960689318504683</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2298255193.322723</v>
+        <v>1848184585.419663</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1550032234174065</v>
+        <v>0.1685877336241759</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02559323663440334</v>
+        <v>0.01697925559688608</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1410449236.576344</v>
+        <v>1113870680.243979</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1856916189329781</v>
+        <v>0.1569634802546826</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02739319479422727</v>
+        <v>0.02692979671441346</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2347863066.613938</v>
+        <v>2844540893.56215</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1107837498051734</v>
+        <v>0.1711904892939932</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03667983504191451</v>
+        <v>0.03014870915688228</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2545025997.93526</v>
+        <v>2545748917.269537</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1401067937656097</v>
+        <v>0.1508639086930031</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03588532022268687</v>
+        <v>0.04091403946854234</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1880216984.855522</v>
+        <v>2167824833.020821</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09387034933347904</v>
+        <v>0.1354071459920607</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04324363567572192</v>
+        <v>0.04093901086930625</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1660242451.487147</v>
+        <v>1438957536.651545</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1758154109920058</v>
+        <v>0.1928806063111701</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04574231967698143</v>
+        <v>0.05742083044030644</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1987424732.467086</v>
+        <v>2913154316.364089</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1026822176843126</v>
+        <v>0.06984513642207534</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04714096659303219</v>
+        <v>0.04094068713815503</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3237744919.418787</v>
+        <v>4881402735.126585</v>
       </c>
       <c r="F93" t="n">
-        <v>0.126923564805373</v>
+        <v>0.09454184344455514</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05373209003016203</v>
+        <v>0.04220865432886848</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1677343228.885586</v>
+        <v>1832204110.634196</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1431671862283352</v>
+        <v>0.1276073202903847</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03177495689293276</v>
+        <v>0.03533047962288569</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2367647762.689438</v>
+        <v>2183571869.991593</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1036011135424645</v>
+        <v>0.1019665994079097</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04567312386711189</v>
+        <v>0.0424765555598615</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2169180491.438517</v>
+        <v>2028696327.565913</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1179167092892238</v>
+        <v>0.0859620414492306</v>
       </c>
       <c r="G96" t="n">
-        <v>0.035808728670057</v>
+        <v>0.0411282212309419</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4759887878.889781</v>
+        <v>3379574313.823509</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1121800437603233</v>
+        <v>0.1373166726280077</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02088228120562481</v>
+        <v>0.02566710308670956</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3471632689.358386</v>
+        <v>2953959533.879521</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1195998992742411</v>
+        <v>0.1119454853322333</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02062323956057349</v>
+        <v>0.02539092105428391</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2952638376.977267</v>
+        <v>2811913559.359645</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1083462011492296</v>
+        <v>0.1181273462431042</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03385977559578186</v>
+        <v>0.02232325038803495</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3892243476.156115</v>
+        <v>4744672746.669884</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1321542554203189</v>
+        <v>0.1376144409921929</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02001931579672975</v>
+        <v>0.02638947077718116</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3042713530.160594</v>
+        <v>3125397069.060774</v>
       </c>
       <c r="F101" t="n">
-        <v>0.211951791123791</v>
+        <v>0.1510278366305972</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05200158033363815</v>
+        <v>0.04388567862910537</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_217.xlsx
+++ b/output/fit_clients/fit_round_217.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2293215181.858953</v>
+        <v>2414546291.049327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08071425533390869</v>
+        <v>0.1068582027327063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03956003105923204</v>
+        <v>0.02907928761970071</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2521113445.078098</v>
+        <v>1868117495.254436</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15356695525696</v>
+        <v>0.1410186821002045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03504256792994465</v>
+        <v>0.03314533789219851</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3626084623.076588</v>
+        <v>4637893725.296062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1303844096904659</v>
+        <v>0.1237191353495829</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03248523633700688</v>
+        <v>0.03766259807700342</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>118</v>
+      </c>
+      <c r="J4" t="n">
+        <v>217</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4246837293.83767</v>
+        <v>2765031081.118242</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08331646911827346</v>
+        <v>0.06969520246493084</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04755818198193917</v>
+        <v>0.03582138832725234</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89</v>
+      </c>
+      <c r="J5" t="n">
+        <v>216</v>
+      </c>
+      <c r="K5" t="n">
+        <v>71.14638330677506</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2719165343.12329</v>
+        <v>2636886914.068912</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09924345290209448</v>
+        <v>0.1483547427959731</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04139848844580443</v>
+        <v>0.04389708727366764</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2813188332.180187</v>
+        <v>2226358923.250167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07129587043843563</v>
+        <v>0.06859005494637088</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04948175025590448</v>
+        <v>0.03405867222146303</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3174661983.619351</v>
+        <v>2755070074.816828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1675147556277639</v>
+        <v>0.1436762948851968</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02381098517411765</v>
+        <v>0.02850977699324818</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>214</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1719478635.216284</v>
+        <v>1951891729.180858</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1402312733375948</v>
+        <v>0.1910352368886865</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02759750554953043</v>
+        <v>0.029760838947236</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4284154354.182793</v>
+        <v>5560595590.302584</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1528632145572357</v>
+        <v>0.1363551501106353</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03771637112229486</v>
+        <v>0.04300353812877222</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>198</v>
+      </c>
+      <c r="J10" t="n">
+        <v>217</v>
+      </c>
+      <c r="K10" t="n">
+        <v>123.0362332917328</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2933690374.259028</v>
+        <v>2909740632.297514</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1803279366885642</v>
+        <v>0.1830597040701719</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03103427824306756</v>
+        <v>0.04167751435704272</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>91</v>
+      </c>
+      <c r="J11" t="n">
+        <v>216</v>
+      </c>
+      <c r="K11" t="n">
+        <v>72.78003097416843</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2871812691.06704</v>
+        <v>2593198793.804666</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1662762255962643</v>
+        <v>0.1320320600860591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05125686765062731</v>
+        <v>0.03668335148464026</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3385205528.113801</v>
+        <v>5224904575.435431</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09417981816813067</v>
+        <v>0.09280515803643766</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0275826125660566</v>
+        <v>0.02045355119405368</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>109</v>
+      </c>
+      <c r="J13" t="n">
+        <v>217</v>
+      </c>
+      <c r="K13" t="n">
+        <v>115.0098146473006</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3914930969.639852</v>
+        <v>2365190203.583538</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1750102123854907</v>
+        <v>0.1319411653645125</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03935312600508171</v>
+        <v>0.03886316614261717</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1137016359.376465</v>
+        <v>1147054433.451663</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0839527604043632</v>
+        <v>0.1024395583464392</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03625359558456762</v>
+        <v>0.04622881591521796</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2345560168.132722</v>
+        <v>2314590248.716214</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1091230947272452</v>
+        <v>0.08281895313406135</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03682055655128882</v>
+        <v>0.04634664526280876</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4728620094.284687</v>
+        <v>4930454197.392445</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1343522967577972</v>
+        <v>0.1252039501548447</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04385190938736169</v>
+        <v>0.04091104416361564</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>104</v>
+      </c>
+      <c r="J17" t="n">
+        <v>217</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3965815783.509634</v>
+        <v>3511032799.392422</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1740425214489299</v>
+        <v>0.1841541937115315</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02664530004873389</v>
+        <v>0.03028043813834549</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>56</v>
+      </c>
+      <c r="J18" t="n">
+        <v>217</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1050218719.327137</v>
+        <v>1291902544.408914</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1255744422845323</v>
+        <v>0.1456435519132715</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02430560678297301</v>
+        <v>0.02554930883954562</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2008732189.562018</v>
+        <v>1793812712.926813</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1566475296618705</v>
+        <v>0.1386618903164825</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02476211425808208</v>
+        <v>0.02814116787976228</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2391616977.889116</v>
+        <v>1848096139.292423</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07207163807624048</v>
+        <v>0.09759201993496022</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04052693249700469</v>
+        <v>0.03109105459323618</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4003123092.798826</v>
+        <v>3183455525.039988</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1197826343616038</v>
+        <v>0.1376190993367749</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05597060692855453</v>
+        <v>0.03456131659088369</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>213</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1040989280.176421</v>
+        <v>1555136875.389244</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1322912144373957</v>
+        <v>0.1704276774230456</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05237249391606445</v>
+        <v>0.05311283215165592</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3837870469.872958</v>
+        <v>3263713918.216781</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09418206754381089</v>
+        <v>0.1266771423781698</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03031517734381149</v>
+        <v>0.03640600649028367</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>68</v>
+      </c>
+      <c r="J24" t="n">
+        <v>215</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1405411888.463861</v>
+        <v>1380385582.537838</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1093812458918607</v>
+        <v>0.1147520872671455</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02327086849683129</v>
+        <v>0.02338569854001498</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>921555181.9638962</v>
+        <v>940810621.6328576</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1166297356489865</v>
+        <v>0.08122574483780515</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0249640090502587</v>
+        <v>0.03580835817159903</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3877418586.290895</v>
+        <v>3626909300.454399</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1485324184531729</v>
+        <v>0.1403720475342541</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02244273534742309</v>
+        <v>0.01667998876955471</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>86</v>
+      </c>
+      <c r="J27" t="n">
+        <v>216</v>
+      </c>
+      <c r="K27" t="n">
+        <v>91.60835771489084</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3229620655.837369</v>
+        <v>3293121888.709426</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09243115353988492</v>
+        <v>0.1185642899955902</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04875094081466702</v>
+        <v>0.0337173250877687</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>44</v>
+      </c>
+      <c r="J28" t="n">
+        <v>216</v>
+      </c>
+      <c r="K28" t="n">
+        <v>88.10973514547852</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3868010922.231538</v>
+        <v>4494644289.591116</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1307530588714183</v>
+        <v>0.09753684795830037</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04674665767345369</v>
+        <v>0.04119619089546901</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>206</v>
+      </c>
+      <c r="J29" t="n">
+        <v>217</v>
+      </c>
+      <c r="K29" t="n">
+        <v>127.3515604829342</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2131892609.587674</v>
+        <v>1655004208.846471</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1329888965151991</v>
+        <v>0.120243532925643</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03676733398151273</v>
+        <v>0.02958374972178012</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1442761086.192012</v>
+        <v>931666266.2684963</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09317738912733434</v>
+        <v>0.1040380381264553</v>
       </c>
       <c r="G31" t="n">
-        <v>0.049289887298089</v>
+        <v>0.03811763024921511</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1562467224.137806</v>
+        <v>1781669891.066427</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0841791101938035</v>
+        <v>0.1133334727689145</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03766802121267972</v>
+        <v>0.02785478560161074</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2856848182.439871</v>
+        <v>2240282048.681782</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1462157967531663</v>
+        <v>0.1824759781485411</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04196385301781617</v>
+        <v>0.03738459762747331</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1205905658.902781</v>
+        <v>1213617236.433133</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09229753761562977</v>
+        <v>0.08277656346410354</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02561996656635829</v>
+        <v>0.01964330389169645</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>969834801.9372797</v>
+        <v>962414083.3443717</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09203185240784778</v>
+        <v>0.08686878866920854</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04416743930086153</v>
+        <v>0.03309453302909025</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3129135105.560049</v>
+        <v>2085519988.968123</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1281717109551796</v>
+        <v>0.1596293608403884</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02231446023373396</v>
+        <v>0.02879450048228531</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2884630713.809684</v>
+        <v>2199665068.995408</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06912371362481633</v>
+        <v>0.08312261204373037</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04167126916396683</v>
+        <v>0.02943226437573584</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1725269636.722414</v>
+        <v>1934533391.529446</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1053050230252632</v>
+        <v>0.105407060825427</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02664125787150294</v>
+        <v>0.03067548043636613</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1739037519.894743</v>
+        <v>1642740216.636317</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1278322724112415</v>
+        <v>0.1603814458645079</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03134679986503492</v>
+        <v>0.02874218197404126</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1670138886.865379</v>
+        <v>1519845013.662972</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09793200286983572</v>
+        <v>0.1428693965451012</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04594645322967985</v>
+        <v>0.05593523313401509</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2840129330.636111</v>
+        <v>1810011608.071113</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1082067347906786</v>
+        <v>0.1385056528632267</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04261201752250442</v>
+        <v>0.02942582429099939</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2641226136.233107</v>
+        <v>3381545212.466619</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09412498366252951</v>
+        <v>0.113841400336087</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02887374330453037</v>
+        <v>0.04576955013714563</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>86</v>
+      </c>
+      <c r="J42" t="n">
+        <v>216</v>
+      </c>
+      <c r="K42" t="n">
+        <v>96.32819773788025</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2764856704.17662</v>
+        <v>2862381897.880213</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1359079432085684</v>
+        <v>0.1538473331724004</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02356909220493736</v>
+        <v>0.02391997168264118</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1886087857.950617</v>
+        <v>1501251731.382461</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07595509619487426</v>
+        <v>0.076139910477145</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02762259980250877</v>
+        <v>0.02618041882993292</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2331412687.269424</v>
+        <v>2384753175.886278</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1173773183038231</v>
+        <v>0.1452851353008081</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04038647372382245</v>
+        <v>0.0370062514156323</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3457504787.861959</v>
+        <v>4009333423.062786</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1664583490662274</v>
+        <v>0.1643405279157041</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04502714897751279</v>
+        <v>0.04178526058844871</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>124</v>
+      </c>
+      <c r="J46" t="n">
+        <v>216</v>
+      </c>
+      <c r="K46" t="n">
+        <v>114.7378386277583</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2094,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5058066921.751152</v>
+        <v>5191190237.755127</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1936210472720004</v>
+        <v>0.1737657397100985</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0515887305450368</v>
+        <v>0.03979239277539562</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>97</v>
+      </c>
+      <c r="J47" t="n">
+        <v>217</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2984459752.147252</v>
+        <v>4625866428.07445</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07705514452851378</v>
+        <v>0.06751250897589554</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03526497983789285</v>
+        <v>0.03164265152948886</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>107</v>
+      </c>
+      <c r="J48" t="n">
+        <v>217</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1766828387.272666</v>
+        <v>1810877643.366496</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1721719741433997</v>
+        <v>0.1643832071900817</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03026953493462345</v>
+        <v>0.02949758289462072</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3091795681.364806</v>
+        <v>4203673840.684877</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1656611432838271</v>
+        <v>0.1132229935681976</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0402076703231408</v>
+        <v>0.0406970359937369</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>69</v>
+      </c>
+      <c r="J50" t="n">
+        <v>217</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1528158946.849318</v>
+        <v>1229350500.54548</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1668409576664426</v>
+        <v>0.1607572736929381</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04895632808645894</v>
+        <v>0.03628045005800104</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3993280561.397259</v>
+        <v>3329652256.039729</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1379002142143068</v>
+        <v>0.1079778318300693</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03965429688328825</v>
+        <v>0.0504172846554528</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>146</v>
+      </c>
+      <c r="J52" t="n">
+        <v>215</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2959311935.82068</v>
+        <v>3783131278.953331</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1701724040092998</v>
+        <v>0.168882551199441</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02999384778814652</v>
+        <v>0.02904184614851092</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>217</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3119674235.236538</v>
+        <v>3637141549.31</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1363174714134113</v>
+        <v>0.1261446595038552</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04377015193422169</v>
+        <v>0.05247897164112172</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>115</v>
+      </c>
+      <c r="J54" t="n">
+        <v>216</v>
+      </c>
+      <c r="K54" t="n">
+        <v>108.0144706659019</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4875796792.917518</v>
+        <v>4926722590.976295</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2161311553404659</v>
+        <v>0.1465768033862632</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02188630886762619</v>
+        <v>0.02512798169251629</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>97</v>
+      </c>
+      <c r="J55" t="n">
+        <v>217</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1577755245.487445</v>
+        <v>1506353120.824652</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1619408312125076</v>
+        <v>0.1096959104398222</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05315615698991708</v>
+        <v>0.05693224187689002</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2849944900.303608</v>
+        <v>4113935819.689622</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1582733077864899</v>
+        <v>0.1746332117209656</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02454535673059594</v>
+        <v>0.02697301559200798</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>85</v>
+      </c>
+      <c r="J57" t="n">
+        <v>216</v>
+      </c>
+      <c r="K57" t="n">
+        <v>114.2563672143908</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1171826695.569093</v>
+        <v>1518137223.638258</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1762152586001699</v>
+        <v>0.1811152449186293</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03808234020892189</v>
+        <v>0.03664606282460305</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4187868600.557688</v>
+        <v>3429076530.290627</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1129492868064988</v>
+        <v>0.1036336940490558</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03760102497395183</v>
+        <v>0.04131244677027061</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>105</v>
+      </c>
+      <c r="J59" t="n">
+        <v>216</v>
+      </c>
+      <c r="K59" t="n">
+        <v>87.5287634879524</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2355702555.177095</v>
+        <v>3370309520.101804</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1475832931015526</v>
+        <v>0.1936344877686499</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03315456313295902</v>
+        <v>0.02971250543514367</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>217</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3029327664.217416</v>
+        <v>3313252690.168567</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1385645402660859</v>
+        <v>0.1728252497367146</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02066273475312067</v>
+        <v>0.03142907304910255</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1967665654.929618</v>
+        <v>1488790928.994581</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1217856755709031</v>
+        <v>0.1305959376711092</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0335557756507261</v>
+        <v>0.03376186243756744</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5193402459.715405</v>
+        <v>5407187227.558139</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07978218045064267</v>
+        <v>0.06850382282595516</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04597006052302664</v>
+        <v>0.03454400338780684</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>106</v>
+      </c>
+      <c r="J63" t="n">
+        <v>216</v>
+      </c>
+      <c r="K63" t="n">
+        <v>106.7552353515264</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4726976626.927021</v>
+        <v>3870626734.391717</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1539392282041143</v>
+        <v>0.1432409935750918</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02258008879984651</v>
+        <v>0.02189879580136352</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>107</v>
+      </c>
+      <c r="J64" t="n">
+        <v>216</v>
+      </c>
+      <c r="K64" t="n">
+        <v>108.6224625098062</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4245195413.804014</v>
+        <v>5924189910.441413</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1672385778981444</v>
+        <v>0.138475576694894</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02036755228312245</v>
+        <v>0.02105991471389692</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>173</v>
+      </c>
+      <c r="J65" t="n">
+        <v>217</v>
+      </c>
+      <c r="K65" t="n">
+        <v>117.5427663890805</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2771,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4587906549.636381</v>
+        <v>4891923471.712734</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1270778967103671</v>
+        <v>0.1078637971176431</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04705405737247733</v>
+        <v>0.05062087995931545</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>107</v>
+      </c>
+      <c r="J66" t="n">
+        <v>216</v>
+      </c>
+      <c r="K66" t="n">
+        <v>102.8630308629196</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2418381805.521245</v>
+        <v>2578529900.257995</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07282651283072575</v>
+        <v>0.0909298938295712</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0349420122778248</v>
+        <v>0.04789107682919498</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5031965121.451571</v>
+        <v>4681303379.290951</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603729954383735</v>
+        <v>0.09936058322092266</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03167427444391292</v>
+        <v>0.03294371223125706</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>109</v>
+      </c>
+      <c r="J68" t="n">
+        <v>217</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1550753868.677461</v>
+        <v>2491265878.110181</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1579783004491032</v>
+        <v>0.1338502605869909</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04853094181163321</v>
+        <v>0.05817179167262148</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2415903388.332672</v>
+        <v>2472749198.892859</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06763037889391886</v>
+        <v>0.09776595109449994</v>
       </c>
       <c r="G70" t="n">
-        <v>0.044106812146299</v>
+        <v>0.04839582178638552</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4525162187.540401</v>
+        <v>3404761097.18301</v>
       </c>
       <c r="F71" t="n">
-        <v>0.168210751819098</v>
+        <v>0.1745763774255533</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02760932294245762</v>
+        <v>0.02266140455013607</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>165</v>
+      </c>
+      <c r="J71" t="n">
+        <v>217</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1957972356.129382</v>
+        <v>2160500332.705345</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1059029859096949</v>
+        <v>0.06753444198594884</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03870761743440927</v>
+        <v>0.0375101598685957</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2728201893.140228</v>
+        <v>2489196454.592486</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08825529922373657</v>
+        <v>0.09348218137828394</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04012210946520529</v>
+        <v>0.04732309005091961</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3065617026.679856</v>
+        <v>3919972010.123177</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1525790226702239</v>
+        <v>0.1568319488492379</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03299015660049171</v>
+        <v>0.02411186465185641</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>217</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1737481650.307403</v>
+        <v>1506454993.498651</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1613136111590729</v>
+        <v>0.135189926572107</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02349378859184569</v>
+        <v>0.03263100172885969</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4183789888.524688</v>
+        <v>3761976137.619822</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08007474586800661</v>
+        <v>0.0945749167262039</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02332772269391085</v>
+        <v>0.02896489856430403</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>100</v>
+      </c>
+      <c r="J76" t="n">
+        <v>216</v>
+      </c>
+      <c r="K76" t="n">
+        <v>100.4171569555398</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1426793154.34506</v>
+        <v>2121446022.042776</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1608739893521985</v>
+        <v>0.1241479989934367</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02691162875265308</v>
+        <v>0.02902312495277486</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3879625002.384274</v>
+        <v>4642870805.459152</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1216908045299689</v>
+        <v>0.1066051910334407</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03661920647018045</v>
+        <v>0.05195662499431768</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>108</v>
+      </c>
+      <c r="J78" t="n">
+        <v>217</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1293909343.04132</v>
+        <v>1637456063.995847</v>
       </c>
       <c r="F79" t="n">
-        <v>0.108052077333571</v>
+        <v>0.1303328597372486</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04066158549759008</v>
+        <v>0.03882751663129514</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5120310057.600766</v>
+        <v>5062831561.449386</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0677946185834998</v>
+        <v>0.1110454424644616</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03199292685320713</v>
+        <v>0.02685316558242234</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>105</v>
+      </c>
+      <c r="J80" t="n">
+        <v>217</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4825800655.518579</v>
+        <v>3408968753.23151</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09820488268248245</v>
+        <v>0.1335954234739991</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03188571626417016</v>
+        <v>0.0309586092091359</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>100</v>
+      </c>
+      <c r="J81" t="n">
+        <v>216</v>
+      </c>
+      <c r="K81" t="n">
+        <v>81.69669981411769</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4790682982.316472</v>
+        <v>5629941692.322545</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1941568456964839</v>
+        <v>0.1996488149951369</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02431209311515735</v>
+        <v>0.01885898409751324</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>161</v>
+      </c>
+      <c r="J82" t="n">
+        <v>217</v>
+      </c>
+      <c r="K82" t="n">
+        <v>120.6174703903097</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2471859783.881825</v>
+        <v>2012752244.176504</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1132321020049075</v>
+        <v>0.1336564425318455</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0340646376519661</v>
+        <v>0.04395980951608101</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1988312299.383813</v>
+        <v>2385896397.713244</v>
       </c>
       <c r="F84" t="n">
-        <v>0.101747182850653</v>
+        <v>0.1034828849725582</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03429934718539703</v>
+        <v>0.04702833408466357</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2279462437.157517</v>
+        <v>3311313069.803345</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1372631826717601</v>
+        <v>0.1745806176798589</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03960689318504683</v>
+        <v>0.03987352958279294</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1848184585.419663</v>
+        <v>1887069653.636572</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1685877336241759</v>
+        <v>0.1221097569616589</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01697925559688608</v>
+        <v>0.02751909264055396</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1113870680.243979</v>
+        <v>1417447055.872886</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1569634802546826</v>
+        <v>0.1389312521805684</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02692979671441346</v>
+        <v>0.03293258244788824</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2844540893.56215</v>
+        <v>3299075875.281168</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1711904892939932</v>
+        <v>0.1631281227883085</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03014870915688228</v>
+        <v>0.02995041852828767</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2545748917.269537</v>
+        <v>3156925988.801329</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1508639086930031</v>
+        <v>0.1413831492761775</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04091403946854234</v>
+        <v>0.02935751625477681</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>214</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2167824833.020821</v>
+        <v>2053816370.835246</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1354071459920607</v>
+        <v>0.1170359027966983</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04093901086930625</v>
+        <v>0.03899369777755786</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1438957536.651545</v>
+        <v>1390445516.919436</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1928806063111701</v>
+        <v>0.1367751233612275</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05742083044030644</v>
+        <v>0.05047668679692275</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2913154316.364089</v>
+        <v>2802924375.960946</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06984513642207534</v>
+        <v>0.1029798331944156</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04094068713815503</v>
+        <v>0.04145013395956065</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4881402735.126585</v>
+        <v>3291501689.755824</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09454184344455514</v>
+        <v>0.1348562796379909</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04220865432886848</v>
+        <v>0.05413667785368872</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>97</v>
+      </c>
+      <c r="J93" t="n">
+        <v>215</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1832204110.634196</v>
+        <v>2430977387.811318</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1276073202903847</v>
+        <v>0.1397149812615222</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03533047962288569</v>
+        <v>0.03272504282442564</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2183571869.991593</v>
+        <v>2728550163.462208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1019665994079097</v>
+        <v>0.1315007313528394</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0424765555598615</v>
+        <v>0.05036604474474536</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2028696327.565913</v>
+        <v>1949299601.005505</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0859620414492306</v>
+        <v>0.1307460287708697</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0411282212309419</v>
+        <v>0.03898981820768522</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3379574313.823509</v>
+        <v>3758578415.553452</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1373166726280077</v>
+        <v>0.1124534291429613</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02566710308670956</v>
+        <v>0.02062219566804104</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>105</v>
+      </c>
+      <c r="J97" t="n">
+        <v>216</v>
+      </c>
+      <c r="K97" t="n">
+        <v>112.6490142078476</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2953959533.879521</v>
+        <v>2846438399.009973</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1119454853322333</v>
+        <v>0.1126486242428284</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02539092105428391</v>
+        <v>0.0243277351255924</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2811913559.359645</v>
+        <v>2651154918.432875</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1181273462431042</v>
+        <v>0.140695801703189</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02232325038803495</v>
+        <v>0.02455299940562316</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4744672746.669884</v>
+        <v>4059886252.351884</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1376144409921929</v>
+        <v>0.1174134010013975</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02638947077718116</v>
+        <v>0.02715463994843404</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>90</v>
+      </c>
+      <c r="J100" t="n">
+        <v>217</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3125397069.060774</v>
+        <v>2819500065.387644</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1510278366305972</v>
+        <v>0.1905280378599749</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04388567862910537</v>
+        <v>0.03714520052514458</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
